--- a/02/Libro02Paso03.xlsx
+++ b/02/Libro02Paso03.xlsx
@@ -765,7 +765,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" activeCellId="2" sqref="B6 E9 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
